--- a/files/xl/mom_bias.xlsx
+++ b/files/xl/mom_bias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\git\course-v3\files\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8355D0-B4D6-4EB8-BB0A-6DCADEAB5919}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3997DEE-864A-42A3-B89D-7A6A65475C18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="857" yWindow="-103" windowWidth="27017" windowHeight="18720" xr2:uid="{429897DE-BCCE-4DDD-94B0-CC4072934DEF}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="2" xr2:uid="{429897DE-BCCE-4DDD-94B0-CC4072934DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>beta</t>
   </si>
@@ -122,6 +121,9 @@
   <si>
     <t>mv</t>
   </si>
+  <si>
+    <t>bn mv</t>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +180,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -196,7 +201,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeremy Howard" refreshedDate="43541.191603819447" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{10D99EA8-94C7-484B-8B5E-3020EBFBF2A1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeremy Howard" refreshedDate="43545.668075694448" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{10D99EA8-94C7-484B-8B5E-3020EBFBF2A1}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:C53" sheet="Sheet1 (3)"/>
   </cacheSource>
@@ -211,10 +216,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="x" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.9949440813782915E-2" maxValue="0.99149411288018618"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3819333197530814E-2" maxValue="4.4386895758672082"/>
     </cacheField>
     <cacheField name="x2" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.9798018878262753E-4" maxValue="0.98306057587606743"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.9097397002437725E-4" maxValue="19.701965150912216"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -229,259 +234,259 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
     <x v="0"/>
-    <n v="0.33822147526652813"/>
-    <n v="0.1143937663314667"/>
+    <n v="0.38593454547105066"/>
+    <n v="0.14894547338794648"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.14353611841661873"/>
-    <n v="2.0602617290109596E-2"/>
+    <n v="0.45819240195368016"/>
+    <n v="0.20994027720808281"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.86027310672250856"/>
-    <n v="0.74006981814999662"/>
+    <n v="0.69900060197328584"/>
+    <n v="0.48860184155901598"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.10475841536509567"/>
-    <n v="1.0974325589805912E-2"/>
+    <n v="1.3819333197530814E-2"/>
+    <n v="1.9097397002437725E-4"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.19832579018747032"/>
-    <n v="3.9333119053484501E-2"/>
+    <n v="0.97017429623219043"/>
+    <n v="0.94123816506962599"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.20289574334772709"/>
-    <n v="4.116668266862674E-2"/>
+    <n v="0.3494923435513515"/>
+    <n v="0.1221448982010159"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.67316365643697573"/>
-    <n v="0.4531493083475987"/>
+    <n v="0.71884666792496477"/>
+    <n v="0.51674053198682457"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.89976435412140066"/>
-    <n v="0.80957589294750132"/>
+    <n v="0.35990919112164332"/>
+    <n v="0.12953462585383557"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.60157242474602579"/>
-    <n v="0.36188938221481287"/>
+    <n v="0.21473919923091267"/>
+    <n v="4.6112923686333601E-2"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.71611687636258148"/>
-    <n v="0.51282338061130084"/>
+    <n v="0.55669512104259955"/>
+    <n v="0.30990945779263457"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.86588342247961003"/>
-    <n v="0.74975410132500286"/>
+    <n v="0.80408495665165192"/>
+    <n v="0.64655261751348891"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.28230420198099704"/>
-    <n v="7.9695662456127567E-2"/>
+    <n v="0.1520055781801708"/>
+    <n v="2.3105695797888015E-2"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.58055307696272263"/>
-    <n v="0.33704187517088496"/>
+    <n v="0.47868097559884371"/>
+    <n v="0.2291354764002608"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.42357228671972991"/>
-    <n v="0.17941348207698107"/>
+    <n v="1.4422196403802743"/>
+    <n v="2.0799974910986077"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.72322355055426091"/>
-    <n v="0.52305230407631154"/>
+    <n v="0.51802457170368443"/>
+    <n v="0.2683494568887857"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.66121331706043129"/>
-    <n v="0.43720305065805842"/>
+    <n v="1.50069750838083"/>
+    <n v="2.2520930116604316"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.98262766307037641"/>
-    <n v="0.96555712423114914"/>
+    <n v="1.7665286519671839"/>
+    <n v="3.1206234782209958"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.40838938048654849"/>
-    <n v="0.16678188609418687"/>
+    <n v="1.2215050846644808"/>
+    <n v="1.4920746718611804"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="1.9949440813782915E-2"/>
-    <n v="3.9798018878262753E-4"/>
+    <n v="1.9852693446140948"/>
+    <n v="3.9412943706644774"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.99149411288018618"/>
-    <n v="0.98306057587606743"/>
+    <n v="0.42924074820034064"/>
+    <n v="0.18424761991558825"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.47391228991287748"/>
-    <n v="0.22459285853046723"/>
+    <n v="2.3213290972676046"/>
+    <n v="5.3885687778212326"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="6.1606632732488786E-2"/>
-    <n v="3.7953771966357588E-3"/>
+    <n v="0.59107278193605917"/>
+    <n v="0.34936703354563214"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.8970537219967164"/>
-    <n v="0.80470538014816217"/>
+    <n v="1.6601420514086103"/>
+    <n v="2.7560716308551889"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.34829839339881696"/>
-    <n v="0.12131177084419706"/>
+    <n v="2.9063212383604045"/>
+    <n v="8.4467031405447557"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.64419889286167509"/>
-    <n v="0.41499221356420796"/>
+    <n v="1.6436273034261313"/>
+    <n v="2.7015107125678557"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.70045670698439144"/>
-    <n v="0.49063959835941762"/>
+    <n v="1.6500786819291289"/>
+    <n v="2.7227596565569714"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="5.0512926105174105E-2"/>
-    <n v="2.5515557037067795E-3"/>
+    <n v="1.3132785959452749"/>
+    <n v="1.7247006705679926"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.14508968475458139"/>
-    <n v="2.105101662218381E-2"/>
+    <n v="2.2636716577744194"/>
+    <n v="5.1242093742111878"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.22121924551953742"/>
-    <n v="4.8937954588233377E-2"/>
+    <n v="2.2534943781787988"/>
+    <n v="5.078236912483451"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.70469601475448262"/>
-    <n v="0.49659647321084999"/>
+    <n v="2.2285841934984916"/>
+    <n v="4.9665875075113224"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.68180969439799011"/>
-    <n v="0.46486445937508064"/>
+    <n v="3.5172807316906831"/>
+    <n v="12.371263745522548"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.12453535203192467"/>
-    <n v="1.5509053905715406E-2"/>
+    <n v="3.4373261576915728"/>
+    <n v="11.815211114350712"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.325639749562041"/>
-    <n v="0.10604124649482878"/>
+    <n v="2.5679530186777719"/>
+    <n v="6.5943827061362814"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.22161372832612347"/>
-    <n v="4.9112644582604864E-2"/>
+    <n v="3.9337916958674635"/>
+    <n v="15.474717106475815"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="6.8429905096831778E-2"/>
-    <n v="4.682651911561404E-3"/>
+    <n v="3.4761338193079623"/>
+    <n v="12.083506329736561"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.54165570363654858"/>
-    <n v="0.29339090128200457"/>
+    <n v="3.1350227891158107"/>
+    <n v="9.8283678882754764"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.61052586292779221"/>
-    <n v="0.37274182930372529"/>
+    <n v="2.6096753427971544"/>
+    <n v="6.8104053948034453"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.69533513579051387"/>
-    <n v="0.48349095106481238"/>
+    <n v="0.31577910919202434"/>
+    <n v="9.9716445802108436E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.22016019325333014"/>
-    <n v="4.8470510693343676E-2"/>
+    <n v="2.9439012395794055"/>
+    <n v="8.6665545083971605"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.51133134468523966"/>
-    <n v="0.26145974405761535"/>
+    <n v="1.5132535348147123"/>
+    <n v="2.2899362606292217"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.79640107722314046"/>
-    <n v="0.63425467580217854"/>
+    <n v="0.51196151530251754"/>
+    <n v="0.26210459315084988"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.54392035742745659"/>
-    <n v="0.29584935522401212"/>
+    <n v="0.94740518481619573"/>
+    <n v="0.89757658421661002"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.20862166561601281"/>
-    <n v="4.3522999364399462E-2"/>
+    <n v="0.32908060898986569"/>
+    <n v="0.10829404721314087"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.81993133477258284"/>
-    <n v="0.67228739374194935"/>
+    <n v="3.1998199942690073"/>
+    <n v="10.23884799572371"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.85178293547691597"/>
-    <n v="0.72553416916967195"/>
+    <n v="3.9795588003825459"/>
+    <n v="15.836888245702168"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.56872765106725287"/>
-    <n v="0.32345114108847495"/>
+    <n v="2.5095983365060643"/>
+    <n v="6.2980838105940053"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.11392829332320964"/>
-    <n v="1.2979656019539295E-2"/>
+    <n v="2.2144952434462724"/>
+    <n v="4.9039891832461651"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.86650298169711615"/>
-    <n v="0.7508274172899928"/>
+    <n v="4.4386895758672082"/>
+    <n v="19.701965150912216"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.46305589062869812"/>
-    <n v="0.21442075784593684"/>
+    <n v="2.0861762351813762"/>
+    <n v="4.3521312842355409"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.93965739230907241"/>
-    <n v="0.882956014921086"/>
+    <n v="0.57254228114296868"/>
+    <n v="0.32780466369639416"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35823EB3-3280-437D-B6A6-4B89A3372457}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35823EB3-3280-437D-B6A6-4B89A3372457}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E3:H9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -540,7 +545,7 @@
     <dataField name="Average of x2" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -855,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D4210E-0E92-49B4-A387-6B165CD96560}">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1001,6 +1006,10 @@
         <f t="shared" si="3"/>
         <v>0.34389999999999993</v>
       </c>
+      <c r="H8" s="2">
+        <f>AVERAGE(C5:C8)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9">
@@ -1025,6 +1034,10 @@
         <f t="shared" si="3"/>
         <v>0.40950999999999993</v>
       </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9:H13" si="4">AVERAGE(C6:C9)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10">
@@ -1049,6 +1062,10 @@
         <f t="shared" si="3"/>
         <v>0.46855899999999984</v>
       </c>
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11">
@@ -1073,6 +1090,10 @@
         <f t="shared" si="3"/>
         <v>0.52170309999999986</v>
       </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12">
@@ -1097,6 +1118,10 @@
         <f t="shared" si="3"/>
         <v>0.5695327899999999</v>
       </c>
+      <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13">
@@ -1120,6 +1145,10 @@
       <c r="G13">
         <f t="shared" si="3"/>
         <v>0.61257951099999985</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1162,7 @@
   <dimension ref="B1:I56"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2897,9 +2926,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178040C7-99B4-4FC3-AD18-7F9B021F4127}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2909,24 +2940,27 @@
     <col min="6" max="6" width="4.3828125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.3046875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="11" width="5.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.07421875" customWidth="1"/>
+    <col min="10" max="10" width="7.69140625" customWidth="1"/>
+    <col min="11" max="12" width="5.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.921875" customWidth="1"/>
+    <col min="14" max="14" width="6.84375" customWidth="1"/>
+    <col min="19" max="19" width="5.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="N1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="O1">
         <v>10</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>0.2</v>
       </c>
-      <c r="P1">
-        <f>1-O1</f>
+      <c r="Q1">
+        <f>1-P1</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2950,938 +2984,1012 @@
       </c>
       <c r="I3"/>
       <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <f>_xlfn.CEILING.MATH((ROW(A4)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>0.33822147526652813</v>
+        <f ca="1">RAND()*A4</f>
+        <v>0.29128222075130539</v>
       </c>
       <c r="C4" s="3">
-        <f>B4^2</f>
-        <v>0.1143937663314667</v>
+        <f ca="1">B4^2</f>
+        <v>8.4845332125812203E-2</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>0.47386279609729315</v>
+        <v>0.47268037016992093</v>
       </c>
       <c r="G4" s="3">
-        <v>8.5851879795325561E-2</v>
+        <v>6.7909184527560493E-2</v>
       </c>
       <c r="H4" s="3">
-        <v>0.31039782932047039</v>
+        <v>0.29133591687153398</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
+        <f>G4</f>
+        <v>6.7909184527560493E-2</v>
+      </c>
+      <c r="K4" s="3">
         <v>5</v>
       </c>
-      <c r="K4" s="3">
-        <f>J4</f>
+      <c r="L4" s="3">
+        <f>K4</f>
         <v>5</v>
       </c>
-      <c r="L4" s="3">
-        <f>J4*F4</f>
-        <v>2.3693139804864658</v>
-      </c>
       <c r="M4" s="3">
-        <f>L4</f>
-        <v>2.3693139804864658</v>
+        <f>K4*F4</f>
+        <v>2.3634018508496046</v>
       </c>
       <c r="N4" s="3">
-        <f>M4/K4</f>
-        <v>0.47386279609729315</v>
+        <f>M4</f>
+        <v>2.3634018508496046</v>
       </c>
       <c r="O4" s="3">
+        <f>N4/L4</f>
+        <v>0.47268037016992093</v>
+      </c>
+      <c r="P4" s="3">
         <f>F4</f>
-        <v>0.47386279609729315</v>
-      </c>
-      <c r="P4" s="3">
-        <f>J4*H4</f>
-        <v>1.5519891466023519</v>
+        <v>0.47268037016992093</v>
       </c>
       <c r="Q4" s="3">
-        <f>P4</f>
-        <v>1.5519891466023519</v>
+        <f>K4*H4</f>
+        <v>1.4566795843576699</v>
       </c>
       <c r="R4" s="3">
-        <f>Q4/K4-N4^2</f>
-        <v>8.5851879795325575E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+        <f>Q4</f>
+        <v>1.4566795843576699</v>
+      </c>
+      <c r="S4" s="3">
+        <f>R4/L4-O4^2</f>
+        <v>6.7909184527560507E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
-        <f t="shared" ref="A5:A53" si="0">_xlfn.CEILING.MATH((ROW(A5)-3)/10)</f>
+        <f>_xlfn.CEILING.MATH((ROW(A5)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>0.14353611841661873</v>
+        <f t="shared" ref="B5:B53" ca="1" si="0">RAND()*A5</f>
+        <v>0.63590897631966659</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C53" si="1">B5^2</f>
-        <v>2.0602617290109596E-2</v>
+        <f ca="1">B5^2</f>
+        <v>0.40438022616392627</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>0.59392104530086465</v>
+        <v>1.0298257060341556</v>
       </c>
       <c r="G5" s="3">
-        <v>8.9453596164083535E-2</v>
+        <v>0.36320640419342382</v>
       </c>
       <c r="H5" s="3">
-        <v>0.44219580421535526</v>
+        <v>1.4237473890021706</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3">
+        <f>J4*$Q$1+$P$1*G5</f>
+        <v>0.12696862846073315</v>
+      </c>
+      <c r="K5" s="3">
         <v>10</v>
       </c>
-      <c r="K5" s="3">
-        <f>K4+(J5-K4)*$O$1</f>
+      <c r="L5" s="3">
+        <f>L4+(K5-L4)*$P$1</f>
         <v>6</v>
       </c>
-      <c r="L5" s="3">
-        <f>J5*F5</f>
-        <v>5.9392104530086467</v>
-      </c>
       <c r="M5" s="3">
-        <f>M4+(L5-M4)*$O$1</f>
-        <v>3.0832932749909019</v>
+        <f>K5*F5</f>
+        <v>10.298257060341555</v>
       </c>
       <c r="N5" s="3">
-        <f>M5/K5</f>
-        <v>0.51388221249848365</v>
+        <f>N4+(M5-N4)*$P$1</f>
+        <v>3.9503728927479949</v>
       </c>
       <c r="O5" s="3">
-        <f>O4+(F5-O4)*$O$1</f>
-        <v>0.49787444593800745</v>
+        <f>N5/L5</f>
+        <v>0.65839548212466581</v>
       </c>
       <c r="P5" s="3">
-        <f>J5*H5</f>
-        <v>4.4219580421535527</v>
+        <f>P4+(F5-P4)*$P$1</f>
+        <v>0.58410943734276788</v>
       </c>
       <c r="Q5" s="3">
-        <f>Q4+(P5-Q4)*$O$1</f>
-        <v>2.125982925712592</v>
+        <f>K5*H5</f>
+        <v>14.237473890021706</v>
       </c>
       <c r="R5" s="3">
-        <f>Q5/K5-N5^2</f>
-        <v>9.0255559296428645E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+        <f>R4+(Q5-R4)*$P$1</f>
+        <v>4.0128384454904777</v>
+      </c>
+      <c r="S5" s="3">
+        <f>R5/L5-O5^2</f>
+        <v>0.23532179669957509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A6)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>0.86027310672250856</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93461186003510399</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="1"/>
-        <v>0.74006981814999662</v>
+        <f ca="1">B6^2</f>
+        <v>0.87349932891827686</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>0.4247044509020742</v>
+        <v>1.8831599979724924</v>
       </c>
       <c r="G6" s="3">
-        <v>8.2543549260773827E-2</v>
+        <v>0.37957996370280112</v>
       </c>
       <c r="H6" s="3">
-        <v>0.26291741987680617</v>
+        <v>3.9258715416665586</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3">
+        <f t="shared" ref="J6:J8" si="1">J5*$Q$1+$P$1*G6</f>
+        <v>0.17749089550914676</v>
+      </c>
+      <c r="K6" s="3">
         <v>15</v>
       </c>
-      <c r="K6" s="3">
-        <f>K5+(J6-K5)*$O$1</f>
+      <c r="L6" s="3">
+        <f>L5+(K6-L5)*$P$1</f>
         <v>7.8</v>
       </c>
-      <c r="L6" s="3">
-        <f>J6*F6</f>
-        <v>6.3705667635311132</v>
-      </c>
       <c r="M6" s="3">
-        <f>M5+(L6-M5)*$O$1</f>
-        <v>3.7407479726989443</v>
+        <f>K6*F6</f>
+        <v>28.247399969587388</v>
       </c>
       <c r="N6" s="3">
-        <f>M6/K6</f>
-        <v>0.4795830734229416</v>
+        <f>N5+(M6-N5)*$P$1</f>
+        <v>8.8097783081158738</v>
       </c>
       <c r="O6" s="3">
-        <f>O5+(F6-O5)*$O$1</f>
-        <v>0.4832404469308208</v>
+        <f>N6/L6</f>
+        <v>1.1294587574507531</v>
       </c>
       <c r="P6" s="3">
-        <f>J6*H6</f>
-        <v>3.9437612981520926</v>
+        <f>P5+(F6-P5)*$P$1</f>
+        <v>0.84391954946871284</v>
       </c>
       <c r="Q6" s="3">
-        <f>Q5+(P6-Q5)*$O$1</f>
-        <v>2.489538600200492</v>
+        <f>K6*H6</f>
+        <v>58.888073124998378</v>
       </c>
       <c r="R6" s="3">
-        <f>Q6/K6-N6^2</f>
-        <v>8.9171691096524924E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+        <f>R5+(Q6-R5)*$P$1</f>
+        <v>14.987885381392058</v>
+      </c>
+      <c r="S6" s="3">
+        <f>R6/L6-O6^2</f>
+        <v>0.64584668206293672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A7)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>0.10475841536509567</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13948055041449814</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0974325589805912E-2</v>
+        <f ca="1">B7^2</f>
+        <v>1.9454823943931356E-2</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4001036669708336</v>
+        <v>2.745011743873456</v>
       </c>
       <c r="G7" s="3">
-        <v>4.9893454943621476E-2</v>
+        <v>1.0683166760097378</v>
       </c>
       <c r="H7" s="3">
-        <v>0.20997639926712922</v>
+        <v>8.6034061500129315</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.355656051609265</v>
+      </c>
+      <c r="K7" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="3">
-        <f>K6+(J7-K6)*$O$1</f>
+      <c r="L7" s="3">
+        <f>L6+(K7-L6)*$P$1</f>
         <v>10.24</v>
       </c>
-      <c r="L7" s="3">
-        <f>J7*F7</f>
-        <v>8.0020733394166719</v>
-      </c>
       <c r="M7" s="3">
-        <f>M6+(L7-M6)*$O$1</f>
-        <v>4.5930130460424898</v>
+        <f>K7*F7</f>
+        <v>54.900234877469117</v>
       </c>
       <c r="N7" s="3">
-        <f>M7/K7</f>
-        <v>0.44853643027758688</v>
+        <f>N6+(M7-N6)*$P$1</f>
+        <v>18.027869621986525</v>
       </c>
       <c r="O7" s="3">
-        <f>O6+(F7-O6)*$O$1</f>
-        <v>0.46661309093882336</v>
+        <f>N7/L7</f>
+        <v>1.7605341427721215</v>
       </c>
       <c r="P7" s="3">
-        <f>J7*H7</f>
-        <v>4.1995279853425842</v>
+        <f>P6+(F7-P6)*$P$1</f>
+        <v>1.2241379883496615</v>
       </c>
       <c r="Q7" s="3">
-        <f>Q6+(P7-Q6)*$O$1</f>
-        <v>2.8315364772289104</v>
+        <f>K7*H7</f>
+        <v>172.06812300025862</v>
       </c>
       <c r="R7" s="3">
-        <f>Q7/K7-N7^2</f>
-        <v>7.5332304818225226E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+        <f>R6+(Q7-R6)*$P$1</f>
+        <v>46.403932905165377</v>
+      </c>
+      <c r="S7" s="3">
+        <f>R7/L7-O7^2</f>
+        <v>1.4321536049036876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A8)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>0.19832579018747032</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.735042322487369</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9333119053484501E-2</v>
+        <f ca="1">B8^2</f>
+        <v>0.5402872158476254</v>
       </c>
       <c r="E8" s="6">
         <v>5</v>
       </c>
       <c r="F8" s="3">
-        <v>0.61725295795414592</v>
+        <v>2.0789327775904023</v>
       </c>
       <c r="G8" s="3">
-        <v>7.4607143943581491E-2</v>
+        <v>1.9708070621293337</v>
       </c>
       <c r="H8" s="3">
-        <v>0.45560835804672417</v>
+        <v>6.2927685558690793</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67868625371327873</v>
+      </c>
+      <c r="K8" s="3">
         <v>15</v>
       </c>
-      <c r="K8" s="3">
-        <f>K7+(J8-K7)*$O$1</f>
+      <c r="L8" s="3">
+        <f>L7+(K8-L7)*$P$1</f>
         <v>11.192</v>
       </c>
-      <c r="L8" s="3">
-        <f>J8*F8</f>
-        <v>9.2587943693121879</v>
-      </c>
       <c r="M8" s="3">
-        <f>M7+(L8-M7)*$O$1</f>
-        <v>5.5261693106964298</v>
+        <f>K8*F8</f>
+        <v>31.183991663856034</v>
       </c>
       <c r="N8" s="3">
-        <f>M8/K8</f>
-        <v>0.49376066035529215</v>
+        <f>N7+(M8-N7)*$P$1</f>
+        <v>20.659094030360428</v>
       </c>
       <c r="O8" s="3">
-        <f>O7+(F8-O7)*$O$1</f>
-        <v>0.49674106434188786</v>
+        <f>N8/L8</f>
+        <v>1.8458804530343484</v>
       </c>
       <c r="P8" s="3">
-        <f>J8*H8</f>
-        <v>6.8341253707008622</v>
+        <f>P7+(F8-P7)*$P$1</f>
+        <v>1.3950969461978096</v>
       </c>
       <c r="Q8" s="3">
-        <f>Q7+(P8-Q7)*$O$1</f>
-        <v>3.6320542559233009</v>
+        <f>K8*H8</f>
+        <v>94.391528338036196</v>
       </c>
       <c r="R8" s="3">
-        <f>Q8/K8-N8^2</f>
-        <v>8.0722770535979482E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+        <f>R7+(Q8-R7)*$P$1</f>
+        <v>56.001451991739543</v>
+      </c>
+      <c r="S8" s="3">
+        <f>R8/L8-O8^2</f>
+        <v>1.5964290693083121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A9)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>0.20289574334772709</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91916493563176982</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>4.116668266862674E-2</v>
+        <f ca="1">B9^2</f>
+        <v>0.84486417889495558</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="3">
-        <v>0.50196898344504215</v>
+        <v>1.6419221191280848</v>
       </c>
       <c r="G9" s="3">
-        <v>8.4246301804448143E-2</v>
+        <v>1.4115176654023944</v>
       </c>
       <c r="H9" s="3">
-        <v>0.33621916214529712</v>
+        <v>4.1074259106844559</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A10)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>0.67316365643697573</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78054433601874917</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.4531493083475987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+        <f ca="1">B10^2</f>
+        <v>0.60924946049094997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A11)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>0.89976435412140066</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18218487570699338</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.80957589294750132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+        <f ca="1">B11^2</f>
+        <v>3.3191328936372624E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A12)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>0.60157242474602579</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4216986819767039</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.36188938221481287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+        <f ca="1">B12^2</f>
+        <v>0.17782977838088926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A13)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>0.71611687636258148</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62845092377706779</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.51282338061130084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+        <f ca="1">B13^2</f>
+        <v>0.39495056359624986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A14)-3)/10)</f>
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>0.86588342247961003</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81972438902991018</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.74975410132500286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+        <f ca="1">B14^2</f>
+        <v>0.67194807397045953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A15)-3)/10)</f>
         <v>2</v>
       </c>
       <c r="B15" s="3">
-        <v>0.28230420198099704</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2799708169423754</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="1"/>
-        <v>7.9695662456127567E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+        <f ca="1">B15^2</f>
+        <v>1.6383252922241318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A16)-3)/10)</f>
         <v>2</v>
       </c>
       <c r="B16" s="3">
-        <v>0.58055307696272263</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32948089523393431</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.33704187517088496</v>
+        <f ca="1">B16^2</f>
+        <v>0.1085576603241548</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A17)-3)/10)</f>
         <v>2</v>
       </c>
       <c r="B17" s="3">
-        <v>0.42357228671972991</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59768090303157306</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.17941348207698107</v>
+        <f ca="1">B17^2</f>
+        <v>0.35722246184863665</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A18)-3)/10)</f>
         <v>2</v>
       </c>
       <c r="B18" s="3">
-        <v>0.72322355055426091</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5335234431994245</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.52305230407631154</v>
+        <f ca="1">B18^2</f>
+        <v>2.3516941508422184</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A19)-3)/10)</f>
         <v>2</v>
       </c>
       <c r="B19" s="3">
-        <v>0.66121331706043129</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34911881845951953</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="1"/>
-        <v>0.43720305065805842</v>
+        <f ca="1">B19^2</f>
+        <v>0.12188394940257095</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A20)-3)/10)</f>
         <v>2</v>
       </c>
       <c r="B20" s="3">
-        <v>0.98262766307037641</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81332042011587324</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="1"/>
-        <v>0.96555712423114914</v>
+        <f ca="1">B20^2</f>
+        <v>0.66149010577746059</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A21)-3)/10)</f>
         <v>2</v>
       </c>
       <c r="B21" s="3">
-        <v>0.40838938048654849</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4772571294436383</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="1"/>
-        <v>0.16678188609418687</v>
+        <f ca="1">B21^2</f>
+        <v>2.1822886264920585</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A22)-3)/10)</f>
         <v>2</v>
       </c>
       <c r="B22" s="3">
-        <v>1.9949440813782915E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17229266282506672</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9798018878262753E-4</v>
+        <f ca="1">B22^2</f>
+        <v>2.9684761663352127E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A23)-3)/10)</f>
         <v>2</v>
       </c>
       <c r="B23" s="3">
-        <v>0.99149411288018618</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72395151535201596</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.98306057587606743</v>
+        <f ca="1">B23^2</f>
+        <v>0.52410579658048018</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A24)-3)/10)</f>
         <v>3</v>
       </c>
       <c r="B24" s="3">
-        <v>0.47391228991287748</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0556013031691318</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="1"/>
-        <v>0.22459285853046723</v>
+        <f ca="1">B24^2</f>
+        <v>4.2254967175906328</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A25)-3)/10)</f>
         <v>3</v>
       </c>
       <c r="B25" s="3">
-        <v>6.1606632732488786E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0154383704188363</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="1"/>
-        <v>3.7953771966357588E-3</v>
+        <f ca="1">B25^2</f>
+        <v>1.0311150841188619</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A26)-3)/10)</f>
         <v>3</v>
       </c>
       <c r="B26" s="3">
-        <v>0.8970537219967164</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99250547254552102</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="1"/>
-        <v>0.80470538014816217</v>
+        <f ca="1">B26^2</f>
+        <v>0.98506711303280803</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A27)-3)/10)</f>
         <v>3</v>
       </c>
       <c r="B27" s="3">
-        <v>0.34829839339881696</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7111692740007229</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="1"/>
-        <v>0.12131177084419706</v>
+        <f ca="1">B27^2</f>
+        <v>7.3504388322856071</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A28)-3)/10)</f>
         <v>3</v>
       </c>
       <c r="B28" s="3">
-        <v>0.64419889286167509</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51376504322099192</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="1"/>
-        <v>0.41499221356420796</v>
+        <f ca="1">B28^2</f>
+        <v>0.26395451963586769</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A29)-3)/10)</f>
         <v>3</v>
       </c>
       <c r="B29" s="3">
-        <v>0.70045670698439144</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5904938362498946</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="1"/>
-        <v>0.49063959835941762</v>
+        <f ca="1">B29^2</f>
+        <v>6.7106583156486961</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A30)-3)/10)</f>
         <v>3</v>
       </c>
       <c r="B30" s="3">
-        <v>5.0512926105174105E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1866922026416962</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5515557037067795E-3</v>
+        <f ca="1">B30^2</f>
+        <v>4.7816227890939924</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A31)-3)/10)</f>
         <v>3</v>
       </c>
       <c r="B31" s="3">
-        <v>0.14508968475458139</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4062413946928101</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="1"/>
-        <v>2.105101662218381E-2</v>
+        <f ca="1">B31^2</f>
+        <v>5.7899976495332002</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A32)-3)/10)</f>
         <v>3</v>
       </c>
       <c r="B32" s="3">
-        <v>0.22121924551953742</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0278145458193806</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="1"/>
-        <v>4.8937954588233377E-2</v>
+        <f ca="1">B32^2</f>
+        <v>4.1120318322366609</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A33)-3)/10)</f>
         <v>3</v>
       </c>
       <c r="B33" s="3">
-        <v>0.70469601475448262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.253608911940328</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="1"/>
-        <v>0.49659647321084999</v>
+        <f ca="1">B33^2</f>
+        <v>1.571535304096213</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A34)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B34" s="3">
-        <v>0.68180969439799011</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23757878471784322</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="1"/>
-        <v>0.46486445937508064</v>
+        <f ca="1">B34^2</f>
+        <v>5.6443678948007295E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A35)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>0.12453535203192467</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5261580410958682</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="1"/>
-        <v>1.5509053905715406E-2</v>
+        <f ca="1">B35^2</f>
+        <v>6.3814744485933144</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A36)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B36" s="3">
-        <v>0.325639749562041</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7314635764496282</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="1"/>
-        <v>0.10604124649482878</v>
+        <f ca="1">B36^2</f>
+        <v>2.9979661165717375</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A37)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B37" s="3">
-        <v>0.22161372832612347</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7469215655089601</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="1"/>
-        <v>4.9112644582604864E-2</v>
+        <f ca="1">B37^2</f>
+        <v>14.039421218076116</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A38)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B38" s="3">
-        <v>6.8429905096831778E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85420560931593537</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="1"/>
-        <v>4.682651911561404E-3</v>
+        <f ca="1">B38^2</f>
+        <v>0.72966722298680842</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A39)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B39" s="3">
-        <v>0.54165570363654858</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2747301952817072</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="1"/>
-        <v>0.29339090128200457</v>
+        <f ca="1">B39^2</f>
+        <v>1.6249370707629394</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A40)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B40" s="3">
-        <v>0.61052586292779221</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7500866038509746</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="1"/>
-        <v>0.37274182930372529</v>
+        <f ca="1">B40^2</f>
+        <v>3.0628031209786379</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A41)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B41" s="3">
-        <v>0.69533513579051387</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39710335872759339</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="1"/>
-        <v>0.48349095106481238</v>
+        <f ca="1">B41^2</f>
+        <v>0.15769107751273573</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A42)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B42" s="3">
-        <v>0.22016019325333014</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9109804629142308</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="1"/>
-        <v>4.8470510693343676E-2</v>
+        <f ca="1">B42^2</f>
+        <v>8.4738072554683495</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A43)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B43" s="3">
-        <v>0.51133134468523966</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8883533947941897</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="1"/>
-        <v>0.26145974405761535</v>
+        <f ca="1">B43^2</f>
+        <v>3.565878543630741</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A44)-3)/10)</f>
         <v>5</v>
       </c>
       <c r="B44" s="3">
-        <v>0.79640107722314046</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8457756114253154</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="1"/>
-        <v>0.63425467580217854</v>
+        <f ca="1">B44^2</f>
+        <v>23.481541276284389</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A45)-3)/10)</f>
         <v>5</v>
       </c>
       <c r="B45" s="3">
-        <v>0.54392035742745659</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70758672102145204</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="1"/>
-        <v>0.29584935522401212</v>
+        <f ca="1">B45^2</f>
+        <v>0.50067896776589016</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A46)-3)/10)</f>
         <v>5</v>
       </c>
       <c r="B46" s="3">
-        <v>0.20862166561601281</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5498113266054938</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="1"/>
-        <v>4.3522999364399462E-2</v>
+        <f ca="1">B46^2</f>
+        <v>20.700783107707643</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A47)-3)/10)</f>
         <v>5</v>
       </c>
       <c r="B47" s="3">
-        <v>0.81993133477258284</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7523366943864449</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="1"/>
-        <v>0.67228739374194935</v>
+        <f ca="1">B47^2</f>
+        <v>7.575357279266103</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A48)-3)/10)</f>
         <v>5</v>
       </c>
       <c r="B48" s="3">
-        <v>0.85178293547691597</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6333948025292875</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="1"/>
-        <v>0.72553416916967195</v>
+        <f ca="1">B48^2</f>
+        <v>21.468347396105415</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A49)-3)/10)</f>
         <v>5</v>
       </c>
       <c r="B49" s="3">
-        <v>0.56872765106725287</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4902533295592102E-2</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="1"/>
-        <v>0.32345114108847495</v>
+        <f ca="1">B49^2</f>
+        <v>2.2208549862623119E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A50)-3)/10)</f>
         <v>5</v>
       </c>
       <c r="B50" s="3">
-        <v>0.11392829332320964</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2288392086682292</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="1"/>
-        <v>1.2979656019539295E-2</v>
+        <f ca="1">B50^2</f>
+        <v>17.883081052769736</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A51)-3)/10)</f>
         <v>5</v>
       </c>
       <c r="B51" s="3">
-        <v>0.86650298169711615</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6093932403850122</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="1"/>
-        <v>0.7508274172899928</v>
+        <f ca="1">B51^2</f>
+        <v>6.8089330829669938</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A52)-3)/10)</f>
         <v>5</v>
       </c>
       <c r="B52" s="3">
-        <v>0.46305589062869812</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45423491396029247</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="1"/>
-        <v>0.21442075784593684</v>
+        <f ca="1">B52^2</f>
+        <v>0.20632935706051431</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CEILING.MATH((ROW(A53)-3)/10)</f>
         <v>5</v>
       </c>
       <c r="B53" s="3">
-        <v>0.93965739230907241</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6885076228959637</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="1"/>
-        <v>0.882956014921086</v>
+        <f ca="1">B53^2</f>
+        <v>21.982103729953561</v>
       </c>
     </row>
   </sheetData>

--- a/files/xl/mom_bias.xlsx
+++ b/files/xl/mom_bias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\git\course-v3\files\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3997DEE-864A-42A3-B89D-7A6A65475C18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21F3210-C0E8-4299-AB3A-7B1AD7E9021D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="2" xr2:uid="{429897DE-BCCE-4DDD-94B0-CC4072934DEF}"/>
+    <workbookView xWindow="850" yWindow="-110" windowWidth="31660" windowHeight="21820" xr2:uid="{429897DE-BCCE-4DDD-94B0-CC4072934DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -180,10 +180,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -486,7 +483,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35823EB3-3280-437D-B6A6-4B89A3372457}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35823EB3-3280-437D-B6A6-4B89A3372457}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E3:H9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -545,7 +542,7 @@
     <dataField name="Average of x2" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -860,19 +857,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D4210E-0E92-49B4-A387-6B165CD96560}">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>0.9</v>
       </c>
@@ -898,7 +895,7 @@
         <v>0.92274469442791995</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -915,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -935,7 +932,7 @@
         <v>5.0000000000000009</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -959,7 +956,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -983,7 +980,7 @@
         <v>0.27099999999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1011,7 +1008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1039,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1067,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -1095,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -1123,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -1165,13 +1162,13 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.23046875" style="3"/>
+    <col min="4" max="4" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C1">
         <v>0.1</v>
       </c>
@@ -1180,7 +1177,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>0.33822147526652813</v>
       </c>
@@ -1227,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>0.14353611841661873</v>
       </c>
@@ -1257,7 +1254,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>0.86027310672250856</v>
       </c>
@@ -1287,7 +1284,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>0.10475841536509567</v>
       </c>
@@ -1317,7 +1314,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>0.19832579018747032</v>
       </c>
@@ -1347,7 +1344,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>0.20289574334772709</v>
       </c>
@@ -1377,7 +1374,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>0.67316365643697573</v>
       </c>
@@ -1407,7 +1404,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>0.89976435412140066</v>
       </c>
@@ -1437,7 +1434,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>0.60157242474602579</v>
       </c>
@@ -1467,7 +1464,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>0.71611687636258148</v>
       </c>
@@ -1500,7 +1497,7 @@
         <v>8.5851879795325561E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>0.86588342247961003</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>9.6595768849205468E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>0.28230420198099704</v>
       </c>
@@ -1566,7 +1563,7 @@
         <v>8.7696648394577886E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>0.58055307696272263</v>
       </c>
@@ -1599,7 +1596,7 @@
         <v>7.6849480792294353E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>0.42357228671972991</v>
       </c>
@@ -1632,7 +1629,7 @@
         <v>5.9996396842068658E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>0.72322355055426091</v>
       </c>
@@ -1665,7 +1662,7 @@
         <v>4.8460676667577335E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>0.66121331706043129</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>3.1249356939563312E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>0.98262766307037641</v>
       </c>
@@ -1731,7 +1728,7 @@
         <v>4.1751682899197749E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>0.40838938048654849</v>
       </c>
@@ -1764,7 +1761,7 @@
         <v>4.1263993377425125E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>1.9949440813782915E-2</v>
       </c>
@@ -1797,7 +1794,7 @@
         <v>7.4382017646606041E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>0.99149411288018618</v>
       </c>
@@ -1830,7 +1827,7 @@
         <v>8.9453596164083535E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>0.47391228991287748</v>
       </c>
@@ -1863,7 +1860,7 @@
         <v>8.1961039153333026E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>6.1606632732488786E-2</v>
       </c>
@@ -1896,7 +1893,7 @@
         <v>9.836918113788741E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>0.8970537219967164</v>
       </c>
@@ -1929,7 +1926,7 @@
         <v>0.11041672705148155</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>0.34829839339881696</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>0.11304536976482656</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>0.64419889286167509</v>
       </c>
@@ -1995,7 +1992,7 @@
         <v>0.11097673174945673</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>0.70045670698439144</v>
       </c>
@@ -2028,7 +2025,7 @@
         <v>0.111997047784856</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>5.0512926105174105E-2</v>
       </c>
@@ -2061,7 +2058,7 @@
         <v>0.11006247945598524</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>0.14508968475458139</v>
       </c>
@@ -2094,7 +2091,7 @@
         <v>0.11899796181889499</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>0.22121924551953742</v>
       </c>
@@ -2127,7 +2124,7 @@
         <v>0.10600654227956316</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>0.70469601475448262</v>
       </c>
@@ -2160,7 +2157,7 @@
         <v>8.2543549260773827E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>0.68180969439799011</v>
       </c>
@@ -2193,7 +2190,7 @@
         <v>8.8479505434155531E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>0.12453535203192467</v>
       </c>
@@ -2226,7 +2223,7 @@
         <v>8.4004397084530738E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>0.325639749562041</v>
       </c>
@@ -2259,7 +2256,7 @@
         <v>6.250433254500623E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>0.22161372832612347</v>
       </c>
@@ -2292,7 +2289,7 @@
         <v>6.5123040680060224E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>6.8429905096831778E-2</v>
       </c>
@@ -2325,7 +2322,7 @@
         <v>6.4763110346581707E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>0.54165570363654858</v>
       </c>
@@ -2358,7 +2355,7 @@
         <v>5.5089081701391047E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>0.61052586292779221</v>
       </c>
@@ -2391,7 +2388,7 @@
         <v>5.4416903466209927E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>0.69533513579051387</v>
       </c>
@@ -2424,7 +2421,7 @@
         <v>5.7517937559859719E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>0.22016019325333014</v>
       </c>
@@ -2457,7 +2454,7 @@
         <v>5.7560046191173164E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>0.51133134468523966</v>
       </c>
@@ -2490,7 +2487,7 @@
         <v>4.9893454943621476E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>0.79640107722314046</v>
       </c>
@@ -2523,7 +2520,7 @@
         <v>5.75314782418333E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>0.54392035742745659</v>
       </c>
@@ -2556,7 +2553,7 @@
         <v>4.9286016685801605E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>0.20862166561601281</v>
       </c>
@@ -2589,7 +2586,7 @@
         <v>5.3510830427236193E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>0.81993133477258284</v>
       </c>
@@ -2622,7 +2619,7 @@
         <v>5.9381182198812679E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>0.85178293547691597</v>
       </c>
@@ -2655,7 +2652,7 @@
         <v>4.6739040998304088E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>0.56872765106725287</v>
       </c>
@@ -2688,7 +2685,7 @@
         <v>4.6597571224944401E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>0.11392829332320964</v>
       </c>
@@ -2721,7 +2718,7 @@
         <v>6.6026136638070665E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>0.86650298169711615</v>
       </c>
@@ -2754,7 +2751,7 @@
         <v>7.4219827341157549E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>0.46305589062869812</v>
       </c>
@@ -2787,7 +2784,7 @@
         <v>6.3499988799427878E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>0.93965739230907241</v>
       </c>
@@ -2820,7 +2817,7 @@
         <v>7.4607143943581491E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>0.77682170689532437</v>
       </c>
@@ -2853,7 +2850,7 @@
         <v>7.3940124126260762E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>0.19092798202752415</v>
       </c>
@@ -2886,7 +2883,7 @@
         <v>9.0193392066421726E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>0.92322310358059989</v>
       </c>
@@ -2928,27 +2925,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178040C7-99B4-4FC3-AD18-7F9B021F4127}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.07421875" customWidth="1"/>
-    <col min="10" max="10" width="7.69140625" customWidth="1"/>
-    <col min="11" max="12" width="5.3828125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.921875" customWidth="1"/>
-    <col min="14" max="14" width="6.84375" customWidth="1"/>
-    <col min="19" max="19" width="5.765625" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.08984375" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" customWidth="1"/>
+    <col min="11" max="12" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.90625" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="O1">
         <v>10</v>
       </c>
@@ -2960,7 +2955,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3014,18 +3009,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f>_xlfn.CEILING.MATH((ROW(A4)-3)/10)</f>
+        <f t="shared" ref="A4:A35" si="0">_xlfn.CEILING.MATH((ROW(A4)-3)/10)</f>
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <f ca="1">RAND()*A4</f>
-        <v>0.29128222075130539</v>
+        <v>0.48635194784943958</v>
       </c>
       <c r="C4" s="3">
-        <f ca="1">B4^2</f>
-        <v>8.4845332125812203E-2</v>
+        <f t="shared" ref="C4:C35" ca="1" si="1">B4^2</f>
+        <v>0.23653821717694401</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -3080,18 +3075,18 @@
         <v>6.7909184527560507E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f>_xlfn.CEILING.MATH((ROW(A5)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B53" ca="1" si="0">RAND()*A5</f>
-        <v>0.63590897631966659</v>
+        <f t="shared" ref="B5:B53" ca="1" si="2">RAND()*A5</f>
+        <v>0.24814683917928504</v>
       </c>
       <c r="C5" s="3">
-        <f ca="1">B5^2</f>
-        <v>0.40438022616392627</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.1576853794669956E-2</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
@@ -3146,18 +3141,18 @@
         <v>0.23532179669957509</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f>_xlfn.CEILING.MATH((ROW(A6)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93461186003510399</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65160305536152985</v>
       </c>
       <c r="C6" s="3">
-        <f ca="1">B6^2</f>
-        <v>0.87349932891827686</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42458654175648092</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -3173,7 +3168,7 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3">
-        <f t="shared" ref="J6:J8" si="1">J5*$Q$1+$P$1*G6</f>
+        <f t="shared" ref="J6:J8" si="3">J5*$Q$1+$P$1*G6</f>
         <v>0.17749089550914676</v>
       </c>
       <c r="K6" s="3">
@@ -3212,18 +3207,18 @@
         <v>0.64584668206293672</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f>_xlfn.CEILING.MATH((ROW(A7)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13948055041449814</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30465235060512152</v>
       </c>
       <c r="C7" s="3">
-        <f ca="1">B7^2</f>
-        <v>1.9454823943931356E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.2813054729225894E-2</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
@@ -3239,7 +3234,7 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.355656051609265</v>
       </c>
       <c r="K7" s="3">
@@ -3278,18 +3273,18 @@
         <v>1.4321536049036876</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f>_xlfn.CEILING.MATH((ROW(A8)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.735042322487369</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18048174679935525</v>
       </c>
       <c r="C8" s="3">
-        <f ca="1">B8^2</f>
-        <v>0.5402872158476254</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2573660927746578E-2</v>
       </c>
       <c r="E8" s="6">
         <v>5</v>
@@ -3305,7 +3300,7 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.67868625371327873</v>
       </c>
       <c r="K8" s="3">
@@ -3344,18 +3339,18 @@
         <v>1.5964290693083121</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f>_xlfn.CEILING.MATH((ROW(A9)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91916493563176982</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.97579301128611573</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">B9^2</f>
-        <v>0.84486417889495558</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95217200087482556</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -3376,620 +3371,620 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f>_xlfn.CEILING.MATH((ROW(A10)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78054433601874917</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.97252775387265822</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">B10^2</f>
-        <v>0.60924946049094997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94581023205259773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f>_xlfn.CEILING.MATH((ROW(A11)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18218487570699338</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.91897839213081733</v>
       </c>
       <c r="C11" s="3">
-        <f ca="1">B11^2</f>
-        <v>3.3191328936372624E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84452128520334224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f>_xlfn.CEILING.MATH((ROW(A12)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4216986819767039</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.977917045724641</v>
       </c>
       <c r="C12" s="3">
-        <f ca="1">B12^2</f>
-        <v>0.17782977838088926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95632174831880956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f>_xlfn.CEILING.MATH((ROW(A13)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62845092377706779</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56426196669389617</v>
       </c>
       <c r="C13" s="3">
-        <f ca="1">B13^2</f>
-        <v>0.39495056359624986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31839156705726357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f>_xlfn.CEILING.MATH((ROW(A14)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81972438902991018</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20511957830012872</v>
       </c>
       <c r="C14" s="3">
-        <f ca="1">B14^2</f>
-        <v>0.67194807397045953</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2074041402022637E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f>_xlfn.CEILING.MATH((ROW(A15)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2799708169423754</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1708897200129025</v>
       </c>
       <c r="C15" s="3">
-        <f ca="1">B15^2</f>
-        <v>1.6383252922241318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3709827364318932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f>_xlfn.CEILING.MATH((ROW(A16)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32948089523393431</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.1267712979848898E-3</v>
       </c>
       <c r="C16" s="3">
-        <f ca="1">B16^2</f>
-        <v>0.1085576603241548</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7537326537811449E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f>_xlfn.CEILING.MATH((ROW(A17)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59768090303157306</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2859906070617741</v>
       </c>
       <c r="C17" s="3">
-        <f ca="1">B17^2</f>
-        <v>0.35722246184863665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6537718414511104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f>_xlfn.CEILING.MATH((ROW(A18)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5335234431994245</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1337037355555803</v>
       </c>
       <c r="C18" s="3">
-        <f ca="1">B18^2</f>
-        <v>2.3516941508422184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2852841600126772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f>_xlfn.CEILING.MATH((ROW(A19)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34911881845951953</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53961060156950857</v>
       </c>
       <c r="C19" s="3">
-        <f ca="1">B19^2</f>
-        <v>0.12188394940257095</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2911796013262069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f>_xlfn.CEILING.MATH((ROW(A20)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81332042011587324</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15361241047460705</v>
       </c>
       <c r="C20" s="3">
-        <f ca="1">B20^2</f>
-        <v>0.66149010577746059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3596772651819167E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f>_xlfn.CEILING.MATH((ROW(A21)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4772571294436383</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.81159007132520733</v>
       </c>
       <c r="C21" s="3">
-        <f ca="1">B21^2</f>
-        <v>2.1822886264920585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65867844387365515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f>_xlfn.CEILING.MATH((ROW(A22)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17229266282506672</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.11658425010204</v>
       </c>
       <c r="C22" s="3">
-        <f ca="1">B22^2</f>
-        <v>2.9684761663352127E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.246760387575935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f>_xlfn.CEILING.MATH((ROW(A23)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72395151535201596</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.24100064456474457</v>
       </c>
       <c r="C23" s="3">
-        <f ca="1">B23^2</f>
-        <v>0.52410579658048018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.8081310680622347E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f>_xlfn.CEILING.MATH((ROW(A24)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0556013031691318</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9946271929935095</v>
       </c>
       <c r="C24" s="3">
-        <f ca="1">B24^2</f>
-        <v>4.2254967175906328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.9785376390291671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f>_xlfn.CEILING.MATH((ROW(A25)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0154383704188363</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.707706459069473</v>
       </c>
       <c r="C25" s="3">
-        <f ca="1">B25^2</f>
-        <v>1.0311150841188619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.3316742684865437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f>_xlfn.CEILING.MATH((ROW(A26)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99250547254552102</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7881060970587481</v>
       </c>
       <c r="C26" s="3">
-        <f ca="1">B26^2</f>
-        <v>0.98506711303280803</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1973234143386691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f>_xlfn.CEILING.MATH((ROW(A27)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7111692740007229</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9952682766622647</v>
       </c>
       <c r="C27" s="3">
-        <f ca="1">B27^2</f>
-        <v>7.3504388322856071</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.9810954958548037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f>_xlfn.CEILING.MATH((ROW(A28)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51376504322099192</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2197416398631971</v>
       </c>
       <c r="C28" s="3">
-        <f ca="1">B28^2</f>
-        <v>0.26395451963586769</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4877696680161612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f>_xlfn.CEILING.MATH((ROW(A29)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5904938362498946</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8276154437235359</v>
       </c>
       <c r="C29" s="3">
-        <f ca="1">B29^2</f>
-        <v>6.7106583156486961</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3401782101367772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f>_xlfn.CEILING.MATH((ROW(A30)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1866922026416962</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7111022228634534</v>
       </c>
       <c r="C30" s="3">
-        <f ca="1">B30^2</f>
-        <v>4.7816227890939924</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.3500752628151576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f>_xlfn.CEILING.MATH((ROW(A31)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4062413946928101</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.668079110798566</v>
       </c>
       <c r="C31" s="3">
-        <f ca="1">B31^2</f>
-        <v>5.7899976495332002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7824879198825343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f>_xlfn.CEILING.MATH((ROW(A32)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0278145458193806</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.94543898003189009</v>
       </c>
       <c r="C32" s="3">
-        <f ca="1">B32^2</f>
-        <v>4.1120318322366609</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89385486496374067</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f>_xlfn.CEILING.MATH((ROW(A33)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.253608911940328</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4115989675665555</v>
       </c>
       <c r="C33" s="3">
-        <f ca="1">B33^2</f>
-        <v>1.571535304096213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9926116452349654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
-        <f>_xlfn.CEILING.MATH((ROW(A34)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23757878471784322</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.8333685524408332</v>
       </c>
       <c r="C34" s="3">
-        <f ca="1">B34^2</f>
-        <v>5.6443678948007295E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.694714458842329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
-        <f>_xlfn.CEILING.MATH((ROW(A35)-3)/10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5261580410958682</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.6897089725030741</v>
       </c>
       <c r="C35" s="3">
-        <f ca="1">B35^2</f>
-        <v>6.3814744485933144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8551164117573942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
-        <f>_xlfn.CEILING.MATH((ROW(A36)-3)/10)</f>
+        <f t="shared" ref="A36:A53" si="4">_xlfn.CEILING.MATH((ROW(A36)-3)/10)</f>
         <v>4</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7314635764496282</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4305795945332518</v>
       </c>
       <c r="C36" s="3">
-        <f ca="1">B36^2</f>
-        <v>2.9979661165717375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ref="C36:C67" ca="1" si="5">B36^2</f>
+        <v>2.0465579762949231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <f>_xlfn.CEILING.MATH((ROW(A37)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7469215655089601</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0178377745013285</v>
       </c>
       <c r="C37" s="3">
-        <f ca="1">B37^2</f>
-        <v>14.039421218076116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.1073448332071312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
-        <f>_xlfn.CEILING.MATH((ROW(A38)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85420560931593537</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5698719844840276</v>
       </c>
       <c r="C38" s="3">
-        <f ca="1">B38^2</f>
-        <v>0.72966722298680842</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>12.743985985603929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
-        <f>_xlfn.CEILING.MATH((ROW(A39)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2747301952817072</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4523018067802944</v>
       </c>
       <c r="C39" s="3">
-        <f ca="1">B39^2</f>
-        <v>1.6249370707629394</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1091805379773074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
-        <f>_xlfn.CEILING.MATH((ROW(A40)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7500866038509746</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.6901885189969561</v>
       </c>
       <c r="C40" s="3">
-        <f ca="1">B40^2</f>
-        <v>3.0628031209786379</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.856737229749124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
-        <f>_xlfn.CEILING.MATH((ROW(A41)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39710335872759339</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0568214780526044</v>
       </c>
       <c r="C41" s="3">
-        <f ca="1">B41^2</f>
-        <v>0.15769107751273573</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1168716364732914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f>_xlfn.CEILING.MATH((ROW(A42)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9109804629142308</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8550109112909094</v>
       </c>
       <c r="C42" s="3">
-        <f ca="1">B42^2</f>
-        <v>8.4738072554683495</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.4410654810083305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f>_xlfn.CEILING.MATH((ROW(A43)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8883533947941897</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.7303501687157552</v>
       </c>
       <c r="C43" s="3">
-        <f ca="1">B43^2</f>
-        <v>3.565878543630741</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>13.915512381237663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
-        <f>_xlfn.CEILING.MATH((ROW(A44)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8457756114253154</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.5806246263888486</v>
       </c>
       <c r="C44" s="3">
-        <f ca="1">B44^2</f>
-        <v>23.481541276284389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>20.98212196787998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
-        <f>_xlfn.CEILING.MATH((ROW(A45)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B45" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70758672102145204</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.7593628898655798</v>
       </c>
       <c r="C45" s="3">
-        <f ca="1">B45^2</f>
-        <v>0.50067896776589016</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>22.651535117429642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
-        <f>_xlfn.CEILING.MATH((ROW(A46)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5498113266054938</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.729224651042105</v>
       </c>
       <c r="C46" s="3">
-        <f ca="1">B46^2</f>
-        <v>20.700783107707643</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>22.365565800024321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
-        <f>_xlfn.CEILING.MATH((ROW(A47)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B47" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7523366943864449</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4569499923394922</v>
       </c>
       <c r="C47" s="3">
-        <f ca="1">B47^2</f>
-        <v>7.575357279266103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.0366032648570309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
-        <f>_xlfn.CEILING.MATH((ROW(A48)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.6333948025292875</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.4270977872685999</v>
       </c>
       <c r="C48" s="3">
-        <f ca="1">B48^2</f>
-        <v>21.468347396105415</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>11.744999243501335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
-        <f>_xlfn.CEILING.MATH((ROW(A49)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4902533295592102E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5690769915393283</v>
       </c>
       <c r="C49" s="3">
-        <f ca="1">B49^2</f>
-        <v>2.2208549862623119E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>12.738310571535424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
-        <f>_xlfn.CEILING.MATH((ROW(A50)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2288392086682292</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1510809563059032</v>
       </c>
       <c r="C50" s="3">
-        <f ca="1">B50^2</f>
-        <v>17.883081052769736</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.9293111931937261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
-        <f>_xlfn.CEILING.MATH((ROW(A51)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6093932403850122</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3180772840209176</v>
       </c>
       <c r="C51" s="3">
-        <f ca="1">B51^2</f>
-        <v>6.8089330829669938</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3734822946937939</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
-        <f>_xlfn.CEILING.MATH((ROW(A52)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45423491396029247</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0199450422286951</v>
       </c>
       <c r="C52" s="3">
-        <f ca="1">B52^2</f>
-        <v>0.20632935706051431</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.0801779736242851</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
-        <f>_xlfn.CEILING.MATH((ROW(A53)-3)/10)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B53" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.6885076228959637</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1393901729711697</v>
       </c>
       <c r="C53" s="3">
-        <f ca="1">B53^2</f>
-        <v>21.982103729953561</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.298209966263272</v>
       </c>
     </row>
   </sheetData>
